--- a/target/test-classes/TestData/original.xlsx
+++ b/target/test-classes/TestData/original.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL G15\Desktop\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="110">
   <si>
     <t>Head_Circumference</t>
   </si>
@@ -104,13 +104,260 @@
   </si>
   <si>
     <t>version</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Version Mars</t>
+  </si>
+  <si>
+    <t>67.18</t>
+  </si>
+  <si>
+    <t>46.5</t>
+  </si>
+  <si>
+    <t>29.81</t>
+  </si>
+  <si>
+    <t>23.13</t>
+  </si>
+  <si>
+    <t>97.02</t>
+  </si>
+  <si>
+    <t>99.98</t>
+  </si>
+  <si>
+    <t>87.91</t>
+  </si>
+  <si>
+    <t>36.92</t>
+  </si>
+  <si>
+    <t>90.37</t>
+  </si>
+  <si>
+    <t>89.67</t>
+  </si>
+  <si>
+    <t>89.89</t>
+  </si>
+  <si>
+    <t>100.12</t>
+  </si>
+  <si>
+    <t>105.83</t>
+  </si>
+  <si>
+    <t>52.32</t>
+  </si>
+  <si>
+    <t>58.92</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>97.13</t>
+  </si>
+  <si>
+    <t>53.81</t>
+  </si>
+  <si>
+    <t>68.47</t>
+  </si>
+  <si>
+    <t>90.75</t>
+  </si>
+  <si>
+    <t>Marge de différence</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Temps de réponse</t>
+  </si>
+  <si>
+    <t>4.78s</t>
+  </si>
+  <si>
+    <t>61.83</t>
+  </si>
+  <si>
+    <t>44.07</t>
+  </si>
+  <si>
+    <t>25.93</t>
+  </si>
+  <si>
+    <t>22.23</t>
+  </si>
+  <si>
+    <t>93.41</t>
+  </si>
+  <si>
+    <t>96.3</t>
+  </si>
+  <si>
+    <t>83.98</t>
+  </si>
+  <si>
+    <t>36.73</t>
+  </si>
+  <si>
+    <t>36.32</t>
+  </si>
+  <si>
+    <t>32.09</t>
+  </si>
+  <si>
+    <t>31.31</t>
+  </si>
+  <si>
+    <t>95.22</t>
+  </si>
+  <si>
+    <t>102.96</t>
+  </si>
+  <si>
+    <t>51.97</t>
+  </si>
+  <si>
+    <t>58.54</t>
+  </si>
+  <si>
+    <t>XS</t>
+  </si>
+  <si>
+    <t>90.99</t>
+  </si>
+  <si>
+    <t>50.91</t>
+  </si>
+  <si>
+    <t>67.08</t>
+  </si>
+  <si>
+    <t>82.27</t>
+  </si>
+  <si>
+    <t>4.05s</t>
+  </si>
+  <si>
+    <t>95.95</t>
+  </si>
+  <si>
+    <t>97.6</t>
+  </si>
+  <si>
+    <t>85.94</t>
+  </si>
+  <si>
+    <t>35.91</t>
+  </si>
+  <si>
+    <t>37.08</t>
+  </si>
+  <si>
+    <t>33.26</t>
+  </si>
+  <si>
+    <t>32.24</t>
+  </si>
+  <si>
+    <t>97.54</t>
+  </si>
+  <si>
+    <t>104.8</t>
+  </si>
+  <si>
+    <t>50.7</t>
+  </si>
+  <si>
+    <t>57.11</t>
+  </si>
+  <si>
+    <t>3.81s</t>
+  </si>
+  <si>
+    <t>64.45</t>
+  </si>
+  <si>
+    <t>42.72</t>
+  </si>
+  <si>
+    <t>28.79</t>
+  </si>
+  <si>
+    <t>20.53</t>
+  </si>
+  <si>
+    <t>86.69</t>
+  </si>
+  <si>
+    <t>96.24</t>
+  </si>
+  <si>
+    <t>75.81</t>
+  </si>
+  <si>
+    <t>92.54</t>
+  </si>
+  <si>
+    <t>130.06</t>
+  </si>
+  <si>
+    <t>131.02</t>
+  </si>
+  <si>
+    <t>111.04</t>
+  </si>
+  <si>
+    <t>95.44</t>
+  </si>
+  <si>
+    <t>102.98</t>
+  </si>
+  <si>
+    <t>61.94</t>
+  </si>
+  <si>
+    <t>69.76</t>
+  </si>
+  <si>
+    <t>93.21</t>
+  </si>
+  <si>
+    <t>52.79</t>
+  </si>
+  <si>
+    <t>67.94</t>
+  </si>
+  <si>
+    <t>94.42</t>
+  </si>
+  <si>
+    <t>2.74s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -142,8 +389,48 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -168,8 +455,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="44"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -185,7 +492,7 @@
         <color theme="1"/>
       </right>
       <top style="medium">
-        <color theme="1"/>
+        <color theme="1" rgb="000000"/>
       </top>
       <bottom style="medium">
         <color theme="1"/>
@@ -200,7 +507,7 @@
         <color theme="1"/>
       </right>
       <top style="medium">
-        <color theme="1"/>
+        <color theme="1" rgb="000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -220,11 +527,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFill="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -236,6 +551,26 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -550,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:R26"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
@@ -558,8 +893,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="10" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="8" width="9.109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="10" width="9.109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="19.53125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.53125" collapsed="false"/>
+    <col min="18" max="18" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -569,6 +912,54 @@
       <c r="B1" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s" s="13">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s" s="15">
+        <v>55</v>
+      </c>
+      <c r="G1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s" s="18">
+        <v>52</v>
+      </c>
+      <c r="J1" t="s" s="20">
+        <v>55</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s" s="23">
+        <v>52</v>
+      </c>
+      <c r="N1" t="s" s="25">
+        <v>55</v>
+      </c>
+      <c r="O1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s" s="28">
+        <v>52</v>
+      </c>
+      <c r="R1" t="s" s="30">
+        <v>55</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
@@ -577,6 +968,54 @@
       <c r="B2" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="C2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>47</v>
+      </c>
+      <c r="R2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
@@ -585,6 +1024,54 @@
       <c r="B3" s="4">
         <v>65.06</v>
       </c>
+      <c r="C3" t="s" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="E3" t="n" s="12">
+        <v>2.1200000000000045</v>
+      </c>
+      <c r="F3" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s" s="16">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s" s="16">
+        <v>57</v>
+      </c>
+      <c r="I3" t="n" s="17">
+        <v>3.230000000000004</v>
+      </c>
+      <c r="J3" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K3" t="s" s="21">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s" s="21">
+        <v>31</v>
+      </c>
+      <c r="M3" t="n" s="22">
+        <v>2.1200000000000045</v>
+      </c>
+      <c r="N3" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O3" t="s" s="26">
+        <v>0</v>
+      </c>
+      <c r="P3" t="s" s="26">
+        <v>90</v>
+      </c>
+      <c r="Q3" t="n" s="27">
+        <v>0.6099999999999994</v>
+      </c>
+      <c r="R3" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
@@ -593,6 +1080,54 @@
       <c r="B4" s="4">
         <v>42.93</v>
       </c>
+      <c r="C4" t="s" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s" s="11">
+        <v>32</v>
+      </c>
+      <c r="E4" t="n" s="12">
+        <v>3.5700000000000003</v>
+      </c>
+      <c r="F4" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s" s="16">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s" s="16">
+        <v>58</v>
+      </c>
+      <c r="I4" t="n" s="17">
+        <v>1.1400000000000006</v>
+      </c>
+      <c r="J4" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K4" t="s" s="21">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s" s="21">
+        <v>32</v>
+      </c>
+      <c r="M4" t="n" s="22">
+        <v>3.5700000000000003</v>
+      </c>
+      <c r="N4" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O4" t="s" s="26">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s" s="26">
+        <v>91</v>
+      </c>
+      <c r="Q4" t="n" s="27">
+        <v>0.21000000000000085</v>
+      </c>
+      <c r="R4" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
@@ -601,6 +1136,54 @@
       <c r="B5" s="4">
         <v>29.27</v>
       </c>
+      <c r="C5" t="s" s="11">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s" s="11">
+        <v>33</v>
+      </c>
+      <c r="E5" t="n" s="12">
+        <v>0.5399999999999991</v>
+      </c>
+      <c r="F5" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G5" t="s" s="16">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s" s="16">
+        <v>59</v>
+      </c>
+      <c r="I5" t="n" s="17">
+        <v>3.34</v>
+      </c>
+      <c r="J5" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s" s="21">
+        <v>2</v>
+      </c>
+      <c r="L5" t="s" s="21">
+        <v>33</v>
+      </c>
+      <c r="M5" t="n" s="22">
+        <v>0.5399999999999991</v>
+      </c>
+      <c r="N5" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O5" t="s" s="26">
+        <v>2</v>
+      </c>
+      <c r="P5" t="s" s="26">
+        <v>92</v>
+      </c>
+      <c r="Q5" t="n" s="27">
+        <v>0.4800000000000004</v>
+      </c>
+      <c r="R5" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
@@ -609,6 +1192,54 @@
       <c r="B6" s="4">
         <v>19.53</v>
       </c>
+      <c r="C6" t="s" s="11">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s" s="11">
+        <v>34</v>
+      </c>
+      <c r="E6" t="n" s="12">
+        <v>3.599999999999998</v>
+      </c>
+      <c r="F6" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G6" t="s" s="16">
+        <v>3</v>
+      </c>
+      <c r="H6" t="s" s="16">
+        <v>60</v>
+      </c>
+      <c r="I6" t="n" s="17">
+        <v>2.6999999999999993</v>
+      </c>
+      <c r="J6" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s" s="21">
+        <v>3</v>
+      </c>
+      <c r="L6" t="s" s="21">
+        <v>34</v>
+      </c>
+      <c r="M6" t="n" s="22">
+        <v>3.599999999999998</v>
+      </c>
+      <c r="N6" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O6" t="s" s="26">
+        <v>3</v>
+      </c>
+      <c r="P6" t="s" s="26">
+        <v>93</v>
+      </c>
+      <c r="Q6" t="n" s="27">
+        <v>1.0</v>
+      </c>
+      <c r="R6" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
@@ -617,6 +1248,54 @@
       <c r="B7" s="4">
         <v>88.94</v>
       </c>
+      <c r="C7" t="s" s="11">
+        <v>4</v>
+      </c>
+      <c r="D7" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="E7" t="n" s="12">
+        <v>8.079999999999998</v>
+      </c>
+      <c r="F7" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G7" t="s" s="16">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s" s="16">
+        <v>61</v>
+      </c>
+      <c r="I7" t="n" s="17">
+        <v>4.469999999999999</v>
+      </c>
+      <c r="J7" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s" s="21">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s" s="21">
+        <v>78</v>
+      </c>
+      <c r="M7" t="n" s="22">
+        <v>7.010000000000005</v>
+      </c>
+      <c r="N7" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s" s="26">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s" s="26">
+        <v>94</v>
+      </c>
+      <c r="Q7" t="n" s="27">
+        <v>2.25</v>
+      </c>
+      <c r="R7" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -625,6 +1304,54 @@
       <c r="B8" s="4">
         <v>90.58</v>
       </c>
+      <c r="C8" t="s" s="11">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="E8" t="n" s="12">
+        <v>9.400000000000006</v>
+      </c>
+      <c r="F8" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G8" t="s" s="16">
+        <v>5</v>
+      </c>
+      <c r="H8" t="s" s="16">
+        <v>62</v>
+      </c>
+      <c r="I8" t="n" s="17">
+        <v>5.719999999999999</v>
+      </c>
+      <c r="J8" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K8" t="s" s="21">
+        <v>5</v>
+      </c>
+      <c r="L8" t="s" s="21">
+        <v>79</v>
+      </c>
+      <c r="M8" t="n" s="22">
+        <v>7.019999999999996</v>
+      </c>
+      <c r="N8" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s" s="26">
+        <v>5</v>
+      </c>
+      <c r="P8" t="s" s="26">
+        <v>95</v>
+      </c>
+      <c r="Q8" t="n" s="27">
+        <v>5.659999999999997</v>
+      </c>
+      <c r="R8" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -633,6 +1360,54 @@
       <c r="B9" s="4">
         <v>74.12</v>
       </c>
+      <c r="C9" t="s" s="11">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s" s="11">
+        <v>37</v>
+      </c>
+      <c r="E9" t="n" s="12">
+        <v>13.789999999999992</v>
+      </c>
+      <c r="F9" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G9" t="s" s="16">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s" s="16">
+        <v>63</v>
+      </c>
+      <c r="I9" t="n" s="17">
+        <v>9.86</v>
+      </c>
+      <c r="J9" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K9" t="s" s="21">
+        <v>6</v>
+      </c>
+      <c r="L9" t="s" s="21">
+        <v>80</v>
+      </c>
+      <c r="M9" t="n" s="22">
+        <v>11.819999999999993</v>
+      </c>
+      <c r="N9" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O9" t="s" s="26">
+        <v>6</v>
+      </c>
+      <c r="P9" t="s" s="26">
+        <v>96</v>
+      </c>
+      <c r="Q9" t="n" s="27">
+        <v>1.6899999999999977</v>
+      </c>
+      <c r="R9" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
@@ -641,6 +1416,54 @@
       <c r="B10" s="4">
         <v>36.03</v>
       </c>
+      <c r="C10" t="s" s="11">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s" s="11">
+        <v>38</v>
+      </c>
+      <c r="E10" t="n" s="12">
+        <v>0.8900000000000006</v>
+      </c>
+      <c r="F10" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s" s="16">
+        <v>7</v>
+      </c>
+      <c r="H10" t="s" s="16">
+        <v>64</v>
+      </c>
+      <c r="I10" t="n" s="17">
+        <v>0.6999999999999957</v>
+      </c>
+      <c r="J10" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s" s="21">
+        <v>7</v>
+      </c>
+      <c r="L10" t="s" s="21">
+        <v>81</v>
+      </c>
+      <c r="M10" t="n" s="22">
+        <v>0.12000000000000455</v>
+      </c>
+      <c r="N10" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O10" t="s" s="26">
+        <v>7</v>
+      </c>
+      <c r="P10" t="s" s="26">
+        <v>97</v>
+      </c>
+      <c r="Q10" t="n" s="27">
+        <v>56.510000000000005</v>
+      </c>
+      <c r="R10" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
@@ -649,6 +1472,54 @@
       <c r="B11" s="4">
         <v>35.15</v>
       </c>
+      <c r="C11" t="s" s="11">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="E11" t="n" s="12">
+        <v>55.220000000000006</v>
+      </c>
+      <c r="F11" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s" s="16">
+        <v>8</v>
+      </c>
+      <c r="H11" t="s" s="16">
+        <v>65</v>
+      </c>
+      <c r="I11" t="n" s="17">
+        <v>1.1700000000000017</v>
+      </c>
+      <c r="J11" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K11" t="s" s="21">
+        <v>8</v>
+      </c>
+      <c r="L11" t="s" s="21">
+        <v>82</v>
+      </c>
+      <c r="M11" t="n" s="22">
+        <v>1.9299999999999997</v>
+      </c>
+      <c r="N11" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O11" t="s" s="26">
+        <v>8</v>
+      </c>
+      <c r="P11" t="s" s="26">
+        <v>98</v>
+      </c>
+      <c r="Q11" t="n" s="27">
+        <v>94.91</v>
+      </c>
+      <c r="R11" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
@@ -657,6 +1528,54 @@
       <c r="B12" s="4">
         <v>30.09</v>
       </c>
+      <c r="C12" t="s" s="11">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s" s="11">
+        <v>40</v>
+      </c>
+      <c r="E12" t="n" s="12">
+        <v>59.58</v>
+      </c>
+      <c r="F12" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G12" t="s" s="16">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s" s="16">
+        <v>66</v>
+      </c>
+      <c r="I12" t="n" s="17">
+        <v>2.0000000000000036</v>
+      </c>
+      <c r="J12" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K12" t="s" s="21">
+        <v>9</v>
+      </c>
+      <c r="L12" t="s" s="21">
+        <v>83</v>
+      </c>
+      <c r="M12" t="n" s="22">
+        <v>3.169999999999998</v>
+      </c>
+      <c r="N12" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O12" t="s" s="26">
+        <v>9</v>
+      </c>
+      <c r="P12" t="s" s="26">
+        <v>99</v>
+      </c>
+      <c r="Q12" t="n" s="27">
+        <v>100.93</v>
+      </c>
+      <c r="R12" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
@@ -665,6 +1584,54 @@
       <c r="B13" s="4">
         <v>32.4</v>
       </c>
+      <c r="C13" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s" s="11">
+        <v>41</v>
+      </c>
+      <c r="E13" t="n" s="12">
+        <v>57.49</v>
+      </c>
+      <c r="F13" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s" s="16">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s" s="16">
+        <v>67</v>
+      </c>
+      <c r="I13" t="n" s="17">
+        <v>1.0899999999999999</v>
+      </c>
+      <c r="J13" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K13" t="s" s="21">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s" s="21">
+        <v>84</v>
+      </c>
+      <c r="M13" t="n" s="22">
+        <v>0.1599999999999966</v>
+      </c>
+      <c r="N13" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O13" t="s" s="26">
+        <v>10</v>
+      </c>
+      <c r="P13" t="s" s="26">
+        <v>100</v>
+      </c>
+      <c r="Q13" t="n" s="27">
+        <v>78.64000000000001</v>
+      </c>
+      <c r="R13" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
@@ -673,6 +1640,54 @@
       <c r="B14" s="4">
         <v>94.51</v>
       </c>
+      <c r="C14" t="s" s="11">
+        <v>11</v>
+      </c>
+      <c r="D14" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="E14" t="n" s="12">
+        <v>5.609999999999999</v>
+      </c>
+      <c r="F14" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G14" t="s" s="16">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s" s="16">
+        <v>68</v>
+      </c>
+      <c r="I14" t="n" s="17">
+        <v>0.7099999999999937</v>
+      </c>
+      <c r="J14" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K14" t="s" s="21">
+        <v>11</v>
+      </c>
+      <c r="L14" t="s" s="21">
+        <v>85</v>
+      </c>
+      <c r="M14" t="n" s="22">
+        <v>3.030000000000001</v>
+      </c>
+      <c r="N14" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O14" t="s" s="26">
+        <v>11</v>
+      </c>
+      <c r="P14" t="s" s="26">
+        <v>101</v>
+      </c>
+      <c r="Q14" t="n" s="27">
+        <v>0.9299999999999926</v>
+      </c>
+      <c r="R14" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
@@ -681,6 +1696,54 @@
       <c r="B15" s="4">
         <v>101.75</v>
       </c>
+      <c r="C15" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s" s="11">
+        <v>43</v>
+      </c>
+      <c r="E15" t="n" s="12">
+        <v>4.079999999999998</v>
+      </c>
+      <c r="F15" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G15" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s" s="16">
+        <v>69</v>
+      </c>
+      <c r="I15" t="n" s="17">
+        <v>1.2099999999999937</v>
+      </c>
+      <c r="J15" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K15" t="s" s="21">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s" s="21">
+        <v>86</v>
+      </c>
+      <c r="M15" t="n" s="22">
+        <v>3.049999999999997</v>
+      </c>
+      <c r="N15" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O15" t="s" s="26">
+        <v>12</v>
+      </c>
+      <c r="P15" t="s" s="26">
+        <v>102</v>
+      </c>
+      <c r="Q15" t="n" s="27">
+        <v>1.230000000000004</v>
+      </c>
+      <c r="R15" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
@@ -689,6 +1752,54 @@
       <c r="B16" s="4">
         <v>48.55</v>
       </c>
+      <c r="C16" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="D16" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="E16" t="n" s="12">
+        <v>3.770000000000003</v>
+      </c>
+      <c r="F16" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G16" t="s" s="16">
+        <v>13</v>
+      </c>
+      <c r="H16" t="s" s="16">
+        <v>70</v>
+      </c>
+      <c r="I16" t="n" s="17">
+        <v>3.4200000000000017</v>
+      </c>
+      <c r="J16" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K16" t="s" s="21">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s" s="21">
+        <v>87</v>
+      </c>
+      <c r="M16" t="n" s="22">
+        <v>2.1500000000000057</v>
+      </c>
+      <c r="N16" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O16" t="s" s="26">
+        <v>13</v>
+      </c>
+      <c r="P16" t="s" s="26">
+        <v>103</v>
+      </c>
+      <c r="Q16" t="n" s="27">
+        <v>13.39</v>
+      </c>
+      <c r="R16" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
@@ -697,6 +1808,54 @@
       <c r="B17" s="4">
         <v>54.68</v>
       </c>
+      <c r="C17" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="E17" t="n" s="12">
+        <v>4.240000000000002</v>
+      </c>
+      <c r="F17" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G17" t="s" s="16">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s" s="16">
+        <v>71</v>
+      </c>
+      <c r="I17" t="n" s="17">
+        <v>3.8599999999999994</v>
+      </c>
+      <c r="J17" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K17" t="s" s="21">
+        <v>14</v>
+      </c>
+      <c r="L17" t="s" s="21">
+        <v>88</v>
+      </c>
+      <c r="M17" t="n" s="22">
+        <v>2.4299999999999997</v>
+      </c>
+      <c r="N17" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O17" t="s" s="26">
+        <v>14</v>
+      </c>
+      <c r="P17" t="s" s="26">
+        <v>104</v>
+      </c>
+      <c r="Q17" t="n" s="27">
+        <v>15.080000000000005</v>
+      </c>
+      <c r="R17" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
@@ -705,6 +1864,54 @@
       <c r="B18" s="4">
         <v>48.55</v>
       </c>
+      <c r="C18" t="s" s="11">
+        <v>15</v>
+      </c>
+      <c r="D18" t="s" s="11">
+        <v>44</v>
+      </c>
+      <c r="E18" t="n" s="12">
+        <v>3.770000000000003</v>
+      </c>
+      <c r="F18" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G18" t="s" s="16">
+        <v>15</v>
+      </c>
+      <c r="H18" t="s" s="16">
+        <v>70</v>
+      </c>
+      <c r="I18" t="n" s="17">
+        <v>3.4200000000000017</v>
+      </c>
+      <c r="J18" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K18" t="s" s="21">
+        <v>15</v>
+      </c>
+      <c r="L18" t="s" s="21">
+        <v>87</v>
+      </c>
+      <c r="M18" t="n" s="22">
+        <v>2.1500000000000057</v>
+      </c>
+      <c r="N18" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O18" t="s" s="26">
+        <v>15</v>
+      </c>
+      <c r="P18" t="s" s="26">
+        <v>103</v>
+      </c>
+      <c r="Q18" t="n" s="27">
+        <v>13.39</v>
+      </c>
+      <c r="R18" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
@@ -713,6 +1920,54 @@
       <c r="B19" s="4">
         <v>54.68</v>
       </c>
+      <c r="C19" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s" s="11">
+        <v>45</v>
+      </c>
+      <c r="E19" t="n" s="12">
+        <v>4.240000000000002</v>
+      </c>
+      <c r="F19" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s" s="16">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s" s="16">
+        <v>71</v>
+      </c>
+      <c r="I19" t="n" s="17">
+        <v>3.8599999999999994</v>
+      </c>
+      <c r="J19" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K19" t="s" s="21">
+        <v>16</v>
+      </c>
+      <c r="L19" t="s" s="21">
+        <v>88</v>
+      </c>
+      <c r="M19" t="n" s="22">
+        <v>2.4299999999999997</v>
+      </c>
+      <c r="N19" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O19" t="s" s="26">
+        <v>16</v>
+      </c>
+      <c r="P19" t="s" s="26">
+        <v>104</v>
+      </c>
+      <c r="Q19" t="n" s="27">
+        <v>15.080000000000005</v>
+      </c>
+      <c r="R19" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
@@ -721,6 +1976,54 @@
       <c r="B20" s="4" t="s">
         <v>18</v>
       </c>
+      <c r="C20" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="D20" t="s" s="11">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s" s="12">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s" s="16">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s" s="16">
+        <v>72</v>
+      </c>
+      <c r="I20" t="s" s="17">
+        <v>53</v>
+      </c>
+      <c r="J20" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K20" t="s" s="21">
+        <v>17</v>
+      </c>
+      <c r="L20" t="s" s="21">
+        <v>46</v>
+      </c>
+      <c r="M20" t="s" s="22">
+        <v>53</v>
+      </c>
+      <c r="N20" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O20" t="s" s="26">
+        <v>17</v>
+      </c>
+      <c r="P20" t="s" s="26">
+        <v>18</v>
+      </c>
+      <c r="Q20" t="s" s="27">
+        <v>54</v>
+      </c>
+      <c r="R20" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
@@ -729,10 +2032,78 @@
       <c r="B21" s="4" t="s">
         <v>20</v>
       </c>
+      <c r="C21" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s" s="11">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s" s="12">
+        <v>54</v>
+      </c>
+      <c r="F21" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G21" t="s" s="16">
+        <v>19</v>
+      </c>
+      <c r="H21" t="s" s="16">
+        <v>20</v>
+      </c>
+      <c r="I21" t="s" s="17">
+        <v>54</v>
+      </c>
+      <c r="J21" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K21" t="s" s="21">
+        <v>19</v>
+      </c>
+      <c r="L21" t="s" s="21">
+        <v>20</v>
+      </c>
+      <c r="M21" t="s" s="22">
+        <v>54</v>
+      </c>
+      <c r="N21" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O21" t="s" s="26">
+        <v>19</v>
+      </c>
+      <c r="P21" t="s" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q21" t="s" s="27">
+        <v>54</v>
+      </c>
+      <c r="R21" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
+      <c r="C22" t="s" s="11">
+        <v>47</v>
+      </c>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22" t="s" s="16">
+        <v>47</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22" t="s" s="21">
+        <v>47</v>
+      </c>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22" t="s" s="26">
+        <v>47</v>
+      </c>
+      <c r="Q22"/>
+      <c r="R22"/>
     </row>
     <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
@@ -741,6 +2112,54 @@
       <c r="B23" s="4">
         <v>92.12</v>
       </c>
+      <c r="C23" t="s" s="11">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="E23" t="n" s="12">
+        <v>5.009999999999991</v>
+      </c>
+      <c r="F23" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G23" t="s" s="16">
+        <v>21</v>
+      </c>
+      <c r="H23" t="s" s="16">
+        <v>73</v>
+      </c>
+      <c r="I23" t="n" s="17">
+        <v>1.1300000000000097</v>
+      </c>
+      <c r="J23" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K23" t="s" s="21">
+        <v>21</v>
+      </c>
+      <c r="L23" t="s" s="21">
+        <v>48</v>
+      </c>
+      <c r="M23" t="n" s="22">
+        <v>5.009999999999991</v>
+      </c>
+      <c r="N23" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O23" t="s" s="26">
+        <v>21</v>
+      </c>
+      <c r="P23" t="s" s="26">
+        <v>105</v>
+      </c>
+      <c r="Q23" t="n" s="27">
+        <v>1.0899999999999892</v>
+      </c>
+      <c r="R23" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
@@ -749,6 +2168,54 @@
       <c r="B24" s="4">
         <v>50.84</v>
       </c>
+      <c r="C24" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s" s="11">
+        <v>49</v>
+      </c>
+      <c r="E24" t="n" s="12">
+        <v>2.969999999999999</v>
+      </c>
+      <c r="F24" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G24" t="s" s="16">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s" s="16">
+        <v>74</v>
+      </c>
+      <c r="I24" t="n" s="17">
+        <v>0.06999999999999318</v>
+      </c>
+      <c r="J24" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K24" t="s" s="21">
+        <v>22</v>
+      </c>
+      <c r="L24" t="s" s="21">
+        <v>49</v>
+      </c>
+      <c r="M24" t="n" s="22">
+        <v>2.969999999999999</v>
+      </c>
+      <c r="N24" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O24" t="s" s="26">
+        <v>22</v>
+      </c>
+      <c r="P24" t="s" s="26">
+        <v>106</v>
+      </c>
+      <c r="Q24" t="n" s="27">
+        <v>1.9499999999999957</v>
+      </c>
+      <c r="R24" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
@@ -757,6 +2224,54 @@
       <c r="B25" s="4">
         <v>63.54</v>
       </c>
+      <c r="C25" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="E25" t="n" s="12">
+        <v>4.93</v>
+      </c>
+      <c r="F25" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G25" t="s" s="16">
+        <v>23</v>
+      </c>
+      <c r="H25" t="s" s="16">
+        <v>75</v>
+      </c>
+      <c r="I25" t="n" s="17">
+        <v>3.539999999999999</v>
+      </c>
+      <c r="J25" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K25" t="s" s="21">
+        <v>23</v>
+      </c>
+      <c r="L25" t="s" s="21">
+        <v>50</v>
+      </c>
+      <c r="M25" t="n" s="22">
+        <v>4.93</v>
+      </c>
+      <c r="N25" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O25" t="s" s="26">
+        <v>23</v>
+      </c>
+      <c r="P25" t="s" s="26">
+        <v>107</v>
+      </c>
+      <c r="Q25" t="n" s="27">
+        <v>4.399999999999999</v>
+      </c>
+      <c r="R25" t="s" s="29">
+        <v>109</v>
+      </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
@@ -764,6 +2279,54 @@
       </c>
       <c r="B26" s="9">
         <v>89.62</v>
+      </c>
+      <c r="C26" t="s" s="11">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s" s="11">
+        <v>51</v>
+      </c>
+      <c r="E26" t="n" s="12">
+        <v>1.1299999999999955</v>
+      </c>
+      <c r="F26" t="s" s="14">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s" s="16">
+        <v>24</v>
+      </c>
+      <c r="H26" t="s" s="16">
+        <v>76</v>
+      </c>
+      <c r="I26" t="n" s="17">
+        <v>7.3500000000000085</v>
+      </c>
+      <c r="J26" t="s" s="19">
+        <v>77</v>
+      </c>
+      <c r="K26" t="s" s="21">
+        <v>24</v>
+      </c>
+      <c r="L26" t="s" s="21">
+        <v>51</v>
+      </c>
+      <c r="M26" t="n" s="22">
+        <v>1.1299999999999955</v>
+      </c>
+      <c r="N26" t="s" s="24">
+        <v>89</v>
+      </c>
+      <c r="O26" t="s" s="26">
+        <v>24</v>
+      </c>
+      <c r="P26" t="s" s="26">
+        <v>108</v>
+      </c>
+      <c r="Q26" t="n" s="27">
+        <v>4.799999999999997</v>
+      </c>
+      <c r="R26" t="s" s="29">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
